--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2015932.482306923</v>
+        <v>-2018651.88345117</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>283.7224074989655</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>152.7238807366883</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.9195785155487</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>128.7592953792538</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>188.7596444787454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>333.5770488146911</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>216.4661202822816</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>24.55276019063743</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>202.3756701638231</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>35.54361781414575</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>32.39542995561167</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.11967103559168</v>
+        <v>66.47690120327194</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703257</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797012</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>65.38324202937362</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>147.2606364488705</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>213.8368886148841</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1505.042027525392</v>
+        <v>778.4750021151654</v>
       </c>
       <c r="C2" t="n">
-        <v>1505.042027525392</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D2" t="n">
-        <v>1505.042027525392</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E2" t="n">
-        <v>1119.253774927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F2" t="n">
-        <v>708.2678701375398</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400156</v>
+        <v>2199.327140807305</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056586</v>
+        <v>1868.264253463734</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1555.214174155099</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525392</v>
+        <v>1555.214174155099</v>
       </c>
       <c r="Y2" t="n">
-        <v>1505.042027525392</v>
+        <v>1165.074842179287</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>143.6627691908465</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143502</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458221</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710447</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>644.1412202705739</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>475.205037342667</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0883979303312</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1506.386225752019</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1217.267888255857</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>1217.267888255857</v>
       </c>
       <c r="W4" t="n">
-        <v>1244.445543553119</v>
+        <v>927.850718218896</v>
       </c>
       <c r="X4" t="n">
-        <v>1016.455992655102</v>
+        <v>699.8611673208786</v>
       </c>
       <c r="Y4" t="n">
-        <v>825.7896851008136</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1114.902695549581</v>
+        <v>1308.132293616578</v>
       </c>
       <c r="C5" t="n">
-        <v>777.9561815953474</v>
+        <v>939.1697766761661</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>580.9040780694156</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>580.9040780694156</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>573.9585773202122</v>
       </c>
       <c r="G5" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056586</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786472</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525393</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549581</v>
+        <v>1694.732133680699</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735143</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049862</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.1895564061562</v>
+        <v>689.90341785788</v>
       </c>
       <c r="C7" t="n">
-        <v>348.2533734782493</v>
+        <v>520.9672349299731</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>370.8505955176373</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>222.9375019352442</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800315</v>
+        <v>76.04755443733384</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800315</v>
+        <v>76.04755443733384</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1209.047770416887</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1209.047770416887</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>919.630600379926</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>919.630600379926</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.8380212363959</v>
+        <v>871.5518826881197</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>474.7217947496383</v>
+        <v>901.3425442071327</v>
       </c>
       <c r="C8" t="n">
-        <v>105.7592778092265</v>
+        <v>901.3425442071327</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251367</v>
+        <v>543.0768456003823</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251367</v>
+        <v>157.288593002138</v>
       </c>
       <c r="F8" t="n">
-        <v>62.9111328033102</v>
+        <v>150.3430922529346</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800314</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800314</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872922</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400157</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320766</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.926725050652</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.460966789572</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137601</v>
+        <v>901.3425442071327</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380217</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>704.6174692164196</v>
+        <v>265.2851191197235</v>
       </c>
       <c r="C10" t="n">
-        <v>535.6812862885128</v>
+        <v>265.2851191197235</v>
       </c>
       <c r="D10" t="n">
-        <v>385.564646876177</v>
+        <v>265.2851191197235</v>
       </c>
       <c r="E10" t="n">
-        <v>237.6515532937839</v>
+        <v>265.2851191197235</v>
       </c>
       <c r="F10" t="n">
-        <v>90.76160579587352</v>
+        <v>118.3951716218131</v>
       </c>
       <c r="G10" t="n">
-        <v>90.76160579587352</v>
+        <v>118.3951716218131</v>
       </c>
       <c r="H10" t="n">
-        <v>90.76160579587352</v>
+        <v>118.3951716218131</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312208</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693238</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096592</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944677</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944677</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944677</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W10" t="n">
-        <v>1114.255484944677</v>
+        <v>895.7157139915107</v>
       </c>
       <c r="X10" t="n">
-        <v>886.2659340466594</v>
+        <v>667.7261630934934</v>
       </c>
       <c r="Y10" t="n">
-        <v>886.2659340466594</v>
+        <v>446.9335839499632</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,22 +5039,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349513</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5197,19 +5197,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179773</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
         <v>2035.089393279801</v>
@@ -5218,31 +5218,31 @@
         <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349513</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459586</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180517</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>449.485266605716</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>301.5721730233229</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>301.5721730233229</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>301.5721730233229</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>159.860341865521</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2298.214965955139</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2078.61350097808</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817746</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761984</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
         <v>2129.438138565707</v>
@@ -5650,16 +5650,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,34 +5671,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
         <v>2035.268256189238</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5887,16 +5887,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,37 +5908,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
         <v>1746.193029533436</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6063,13 +6063,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6078,13 +6078,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="26">
@@ -6218,13 +6218,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6236,22 +6236,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6260,10 +6260,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,25 +6361,25 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,19 +6473,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,25 +6871,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384017</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,37 +7108,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7318,10 +7318,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,49 +7549,49 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7740,10 +7740,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384018</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589403</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780647</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566443</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878337</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154983</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-4.702717623307975e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>334.4199864746781</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>127.8252952739885</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>98.32136939177376</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.82500887334936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194312</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.22910392194335</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>15.8825942891919</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>33.76564955277411</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>72.68610972170688</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287326</v>
+        <v>64921.82232287325</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="E2" t="n">
+        <v>80714.65996900061</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80714.65996900058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>80714.65996900063</v>
+      </c>
+      <c r="H2" t="n">
         <v>80714.6599690006</v>
       </c>
-      <c r="F2" t="n">
-        <v>80714.65996900063</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>80714.6599690006</v>
-      </c>
-      <c r="H2" t="n">
-        <v>80714.65996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>80714.65996900064</v>
       </c>
       <c r="J2" t="n">
         <v>82104.1769864284</v>
@@ -26341,16 +26341,16 @@
         <v>82104.1769864284</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642839</v>
       </c>
       <c r="M2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642839</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>82104.17698642837</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.1769864284</v>
       </c>
       <c r="P2" t="n">
         <v>82104.1769864284</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036144</v>
+        <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36246.77703493719</v>
+        <v>36246.77703493723</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618636</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618636</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26433,31 +26433,31 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732007</v>
+        <v>8117.312426731963</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731936</v>
       </c>
       <c r="J4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982538</v>
       </c>
       <c r="K4" t="n">
+        <v>16108.17168982539</v>
+      </c>
+      <c r="L4" t="n">
         <v>16108.17168982544</v>
       </c>
-      <c r="L4" t="n">
-        <v>16108.17168982546</v>
-      </c>
       <c r="M4" t="n">
-        <v>16108.17168982547</v>
+        <v>16108.17168982545</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982545</v>
       </c>
       <c r="O4" t="n">
         <v>16108.17168982545</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982544</v>
+        <v>16108.17168982545</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1179014.510727829</v>
+        <v>-1179444.069594417</v>
       </c>
       <c r="C6" t="n">
         <v>-145151.59571528</v>
       </c>
       <c r="D6" t="n">
-        <v>-145151.59571528</v>
+        <v>-145151.5957152801</v>
       </c>
       <c r="E6" t="n">
-        <v>-536010.623906184</v>
+        <v>-536045.36183162</v>
       </c>
       <c r="F6" t="n">
-        <v>-28525.18228163847</v>
+        <v>-28559.9202070742</v>
       </c>
       <c r="G6" t="n">
-        <v>-28525.1822816385</v>
+        <v>-28559.92020707416</v>
       </c>
       <c r="H6" t="n">
-        <v>-28525.18228163851</v>
+        <v>-28559.92020707417</v>
       </c>
       <c r="I6" t="n">
-        <v>-28525.18228163845</v>
+        <v>-28559.92020707414</v>
       </c>
       <c r="J6" t="n">
-        <v>-224201.0063609269</v>
+        <v>-224201.0063609267</v>
       </c>
       <c r="K6" t="n">
-        <v>-37168.11055731244</v>
+        <v>-37168.11055731241</v>
       </c>
       <c r="L6" t="n">
+        <v>-37168.11055731245</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-169775.4042862392</v>
+      </c>
+      <c r="N6" t="n">
         <v>-37168.11055731247</v>
       </c>
-      <c r="M6" t="n">
-        <v>-169775.4042862391</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-37168.11055731248</v>
-      </c>
       <c r="O6" t="n">
-        <v>-56595.82855094421</v>
+        <v>-56595.82855094422</v>
       </c>
       <c r="P6" t="n">
         <v>-37168.11055731244</v>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203971</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175397</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.31385518880251</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>39.32139020186429</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>91.98940061795813</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>31.69584295631648</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>195.0815824906724</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,13 +27673,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>122.6987489644914</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27825,13 +27825,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>83.85148395737752</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>319.1394238065372</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>379.1522728173423</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247041</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>65.67692416830887</v>
+        <v>38.31969400062864</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,28 +31282,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31318,7 +31318,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31367,10 +31367,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31379,7 +31379,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767384</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730007</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342228</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166598</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190647</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745102</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177246</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405677</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378627</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168762</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31674,46 +31674,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.7358189575959</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069565</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>556.7959610899857</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>281.0363767960755</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899857</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>353.6230700590493</v>
       </c>
       <c r="N18" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>652.0478969157701</v>
+        <v>281.0363767960748</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>369.1789913099994</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681148</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215496</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34799,7 +34799,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560635</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>436.6197581489553</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35030,10 +35030,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391968</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35100,7 +35100,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540734</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067511</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.005010945728</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376319</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949731</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637952</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402559</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313186</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235325</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667038</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870599</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423492</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295071</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>425.4542490066523</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060445</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="N15" t="n">
-        <v>425.4542490066523</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370309</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>509.9138629937518</v>
+        <v>138.9023428740565</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,22 +36440,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>226.582746865555</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37704,16 +37704,16 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,22 +38099,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
